--- a/06_납품현황/2017/02_광명호반/04_CCM/CCM1/PGS_CCMApp/SystemData/시리얼번호_CCM1(광명B1).xlsx
+++ b/06_납품현황/2017/02_광명호반/04_CCM/CCM1/PGS_CCMApp/SystemData/시리얼번호_CCM1(광명B1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\igs_svn_data\PROJECT_02\06_납품현황\2017\02_광명호반\04_CCM\CCM1\PGS_CCMApp\SystemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\02_광명호반\04_CCM\CCM1\PGS_CCMApp\SystemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -466,120 +466,120 @@
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="109" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:108" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:105" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:105" x14ac:dyDescent="0.45">
       <c r="AW71" s="3">
         <v>69</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:105" x14ac:dyDescent="0.45">
       <c r="AW72" s="3">
         <v>70</v>
       </c>
@@ -19056,34 +19056,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A882" workbookViewId="0">
-      <selection activeCell="A766" sqref="A766:I774"/>
+    <sheetView tabSelected="1" topLeftCell="A853" workbookViewId="0">
+      <selection activeCell="B880" sqref="B880"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="10"/>
-    <col min="2" max="2" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.09765625" style="10"/>
-    <col min="7" max="8" width="9.09765625" style="11"/>
+    <col min="1" max="1" width="9.0703125" style="10"/>
+    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.0703125" style="10"/>
+    <col min="7" max="8" width="9.0703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -19721,7 +19721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -20214,7 +20214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -20475,7 +20475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -20562,7 +20562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -21055,12 +21055,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10">
         <v>129</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10">
         <v>130</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10">
         <v>131</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10">
         <v>132</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10">
         <v>133</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10">
         <v>134</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10">
         <v>135</v>
       </c>
@@ -21137,18 +21137,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10">
         <v>136</v>
       </c>
       <c r="B84" s="1">
-        <v>478</v>
+        <v>2461</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10">
         <v>137</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10">
         <v>138</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10">
         <v>139</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10">
         <v>140</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10">
         <v>141</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10">
         <v>142</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10">
         <v>143</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10">
         <v>144</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10">
         <v>145</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10">
         <v>146</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10">
         <v>147</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10">
         <v>148</v>
       </c>
@@ -21280,7 +21280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10">
         <v>149</v>
       </c>
@@ -21291,18 +21291,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10">
         <v>150</v>
       </c>
       <c r="B98" s="1">
-        <v>492</v>
+        <v>2462</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10">
         <v>151</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10">
         <v>152</v>
       </c>
@@ -21324,22 +21324,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10">
         <v>1</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10">
         <v>2</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10">
         <v>3</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10">
         <v>4</v>
       </c>
@@ -21455,7 +21455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10">
         <v>5</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10">
         <v>6</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10">
         <v>7</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10">
         <v>8</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10">
         <v>9</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10">
         <v>10</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10">
         <v>11</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10">
         <v>12</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10">
         <v>13</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10">
         <v>14</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10">
         <v>15</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10">
         <v>16</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10">
         <v>17</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10">
         <v>18</v>
       </c>
@@ -21861,7 +21861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10">
         <v>19</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10">
         <v>20</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10">
         <v>21</v>
       </c>
@@ -21948,7 +21948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10">
         <v>22</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10">
         <v>23</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10">
         <v>24</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10">
         <v>25</v>
       </c>
@@ -22064,7 +22064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10">
         <v>26</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10">
         <v>27</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10">
         <v>28</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10">
         <v>29</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10">
         <v>30</v>
       </c>
@@ -22209,7 +22209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10">
         <v>31</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10">
         <v>32</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10">
         <v>33</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10">
         <v>34</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10">
         <v>35</v>
       </c>
@@ -22354,7 +22354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10">
         <v>36</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10">
         <v>37</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10">
         <v>38</v>
       </c>
@@ -22441,7 +22441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10">
         <v>39</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10">
         <v>40</v>
       </c>
@@ -22499,7 +22499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10">
         <v>41</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10">
         <v>42</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10">
         <v>43</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10">
         <v>44</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10">
         <v>45</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10">
         <v>46</v>
       </c>
@@ -22673,7 +22673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10">
         <v>47</v>
       </c>
@@ -22702,7 +22702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10">
         <v>48</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10">
         <v>49</v>
       </c>
@@ -22760,7 +22760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10">
         <v>50</v>
       </c>
@@ -22789,7 +22789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10">
         <v>51</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10">
         <v>52</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10">
         <v>53</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10">
         <v>54</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10">
         <v>55</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10">
         <v>56</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10">
         <v>57</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10">
         <v>58</v>
       </c>
@@ -23021,7 +23021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10">
         <v>59</v>
       </c>
@@ -23050,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10">
         <v>60</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10">
         <v>61</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10">
         <v>62</v>
       </c>
@@ -23137,12 +23137,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10">
         <v>129</v>
       </c>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10">
         <v>130</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10">
         <v>131</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10">
         <v>132</v>
       </c>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10">
         <v>133</v>
       </c>
@@ -23197,18 +23197,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10">
         <v>134</v>
       </c>
       <c r="B177" s="1">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10">
         <v>135</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10">
         <v>136</v>
       </c>
@@ -23230,7 +23230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="10">
         <v>137</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10">
         <v>138</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10">
         <v>139</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="10">
         <v>140</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10">
         <v>141</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="10">
         <v>142</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10">
         <v>143</v>
       </c>
@@ -23307,7 +23307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="10">
         <v>144</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="10">
         <v>145</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="10">
         <v>146</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="10">
         <v>147</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="10">
         <v>148</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="10">
         <v>149</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="10">
         <v>150</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="10">
         <v>151</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="10">
         <v>152</v>
       </c>
@@ -23406,22 +23406,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="10">
         <v>1</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="10">
         <v>2</v>
       </c>
@@ -23479,7 +23479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="10">
         <v>3</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="10">
         <v>4</v>
       </c>
@@ -23537,7 +23537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="10">
         <v>5</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="10">
         <v>6</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="10">
         <v>7</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="10">
         <v>8</v>
       </c>
@@ -23653,7 +23653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="10">
         <v>9</v>
       </c>
@@ -23682,7 +23682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="10">
         <v>10</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="10">
         <v>11</v>
       </c>
@@ -23740,7 +23740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="10">
         <v>12</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="10">
         <v>13</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="10">
         <v>14</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="10">
         <v>15</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="10">
         <v>16</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="10">
         <v>17</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="10">
         <v>18</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="10">
         <v>19</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="10">
         <v>20</v>
       </c>
@@ -24001,7 +24001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="10">
         <v>21</v>
       </c>
@@ -24030,7 +24030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="10">
         <v>22</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="10">
         <v>23</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="10">
         <v>24</v>
       </c>
@@ -24117,7 +24117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="10">
         <v>25</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="10">
         <v>26</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="10">
         <v>27</v>
       </c>
@@ -24204,7 +24204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="10">
         <v>28</v>
       </c>
@@ -24233,7 +24233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="10">
         <v>29</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="10">
         <v>30</v>
       </c>
@@ -24291,7 +24291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="10">
         <v>31</v>
       </c>
@@ -24320,7 +24320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="10">
         <v>32</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="10">
         <v>33</v>
       </c>
@@ -24378,7 +24378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="10">
         <v>34</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="10">
         <v>35</v>
       </c>
@@ -24436,7 +24436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="10">
         <v>36</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="10">
         <v>37</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="10">
         <v>38</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="10">
         <v>39</v>
       </c>
@@ -24552,7 +24552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="10">
         <v>40</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="10">
         <v>41</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="10">
         <v>42</v>
       </c>
@@ -24639,7 +24639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="10">
         <v>43</v>
       </c>
@@ -24668,7 +24668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="10">
         <v>44</v>
       </c>
@@ -24697,7 +24697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="10">
         <v>45</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="10">
         <v>46</v>
       </c>
@@ -24755,7 +24755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="10">
         <v>47</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="10">
         <v>48</v>
       </c>
@@ -24813,7 +24813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="10">
         <v>49</v>
       </c>
@@ -24842,7 +24842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="10">
         <v>50</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="10">
         <v>51</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="10">
         <v>52</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="10">
         <v>53</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="10">
         <v>54</v>
       </c>
@@ -24987,7 +24987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="10">
         <v>55</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="10">
         <v>56</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="10">
         <v>57</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="10">
         <v>58</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="10">
         <v>59</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="10">
         <v>60</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="10">
         <v>61</v>
       </c>
@@ -25190,7 +25190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="10">
         <v>62</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="10">
         <v>63</v>
       </c>
@@ -25248,7 +25248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="10">
         <v>64</v>
       </c>
@@ -25277,7 +25277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="10">
         <v>65</v>
       </c>
@@ -25306,7 +25306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="10">
         <v>66</v>
       </c>
@@ -25335,12 +25335,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="10">
         <v>129</v>
       </c>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="10">
         <v>130</v>
       </c>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="10">
         <v>131</v>
       </c>
@@ -25373,7 +25373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="10">
         <v>132</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="10">
         <v>133</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="10">
         <v>134</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="10">
         <v>135</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="10">
         <v>136</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="10">
         <v>137</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="10">
         <v>138</v>
       </c>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="10">
         <v>139</v>
       </c>
@@ -25461,7 +25461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="10">
         <v>140</v>
       </c>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="10">
         <v>141</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="10">
         <v>142</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="10">
         <v>143</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="10">
         <v>144</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="10">
         <v>145</v>
       </c>
@@ -25527,7 +25527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="10">
         <v>146</v>
       </c>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="10">
         <v>147</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="10">
         <v>148</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="10">
         <v>149</v>
       </c>
@@ -25571,7 +25571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="10">
         <v>150</v>
       </c>
@@ -25582,7 +25582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="10">
         <v>151</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="10">
         <v>152</v>
       </c>
@@ -25604,22 +25604,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="10">
         <v>1</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="10">
         <v>2</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="10">
         <v>3</v>
       </c>
@@ -25706,7 +25706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="10">
         <v>4</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="10">
         <v>5</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="10">
         <v>6</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="10">
         <v>7</v>
       </c>
@@ -25822,7 +25822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="10">
         <v>8</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="10">
         <v>9</v>
       </c>
@@ -25880,7 +25880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="10">
         <v>10</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="10">
         <v>11</v>
       </c>
@@ -25938,7 +25938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="10">
         <v>12</v>
       </c>
@@ -25967,7 +25967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="10">
         <v>13</v>
       </c>
@@ -25996,7 +25996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="10">
         <v>14</v>
       </c>
@@ -26025,7 +26025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="10">
         <v>15</v>
       </c>
@@ -26054,7 +26054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="10">
         <v>16</v>
       </c>
@@ -26083,7 +26083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="10">
         <v>17</v>
       </c>
@@ -26112,7 +26112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="10">
         <v>18</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="10">
         <v>19</v>
       </c>
@@ -26170,7 +26170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="10">
         <v>20</v>
       </c>
@@ -26199,7 +26199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="10">
         <v>21</v>
       </c>
@@ -26228,7 +26228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="10">
         <v>22</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="10">
         <v>23</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="10">
         <v>24</v>
       </c>
@@ -26315,7 +26315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="10">
         <v>25</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="10">
         <v>26</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="10">
         <v>27</v>
       </c>
@@ -26402,7 +26402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="10">
         <v>28</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="10">
         <v>29</v>
       </c>
@@ -26460,7 +26460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="10">
         <v>30</v>
       </c>
@@ -26489,7 +26489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="10">
         <v>31</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="10">
         <v>32</v>
       </c>
@@ -26547,7 +26547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="10">
         <v>33</v>
       </c>
@@ -26576,7 +26576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="10">
         <v>34</v>
       </c>
@@ -26605,7 +26605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="10">
         <v>35</v>
       </c>
@@ -26634,7 +26634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="10">
         <v>36</v>
       </c>
@@ -26663,7 +26663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="10">
         <v>37</v>
       </c>
@@ -26692,7 +26692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="10">
         <v>38</v>
       </c>
@@ -26721,7 +26721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="10">
         <v>39</v>
       </c>
@@ -26750,7 +26750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="10">
         <v>40</v>
       </c>
@@ -26779,7 +26779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="10">
         <v>41</v>
       </c>
@@ -26808,7 +26808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="10">
         <v>42</v>
       </c>
@@ -26837,7 +26837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="10">
         <v>43</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="10">
         <v>44</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="10">
         <v>45</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="10">
         <v>46</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="10">
         <v>47</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="10">
         <v>48</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="10">
         <v>49</v>
       </c>
@@ -27040,7 +27040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="10">
         <v>50</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="10">
         <v>51</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="10">
         <v>52</v>
       </c>
@@ -27127,7 +27127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="10">
         <v>53</v>
       </c>
@@ -27156,7 +27156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="10">
         <v>54</v>
       </c>
@@ -27185,7 +27185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="10">
         <v>55</v>
       </c>
@@ -27214,7 +27214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="10">
         <v>56</v>
       </c>
@@ -27243,7 +27243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="10">
         <v>57</v>
       </c>
@@ -27272,7 +27272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="10">
         <v>58</v>
       </c>
@@ -27301,7 +27301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="10">
         <v>59</v>
       </c>
@@ -27330,7 +27330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="10">
         <v>60</v>
       </c>
@@ -27359,7 +27359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="10">
         <v>61</v>
       </c>
@@ -27388,7 +27388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="10">
         <v>62</v>
       </c>
@@ -27417,7 +27417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="10">
         <v>63</v>
       </c>
@@ -27446,7 +27446,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="10">
         <v>64</v>
       </c>
@@ -27475,12 +27475,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="10">
         <v>129</v>
       </c>
@@ -27491,7 +27491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="10">
         <v>130</v>
       </c>
@@ -27502,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="10">
         <v>131</v>
       </c>
@@ -27513,7 +27513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="10">
         <v>132</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="10">
         <v>133</v>
       </c>
@@ -27535,7 +27535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="10">
         <v>134</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="10">
         <v>135</v>
       </c>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="10">
         <v>136</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="10">
         <v>137</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="10">
         <v>138</v>
       </c>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="10">
         <v>139</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="10">
         <v>140</v>
       </c>
@@ -27612,7 +27612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="10">
         <v>141</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="10">
         <v>142</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="10">
         <v>143</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="10">
         <v>144</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="10">
         <v>145</v>
       </c>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="10">
         <v>146</v>
       </c>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="10">
         <v>147</v>
       </c>
@@ -27689,7 +27689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="10">
         <v>148</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="10">
         <v>149</v>
       </c>
@@ -27711,7 +27711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="10">
         <v>150</v>
       </c>
@@ -27722,7 +27722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="10">
         <v>151</v>
       </c>
@@ -27733,7 +27733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="10">
         <v>152</v>
       </c>
@@ -27744,22 +27744,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="10">
         <v>1</v>
       </c>
@@ -27788,7 +27788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="10">
         <v>2</v>
       </c>
@@ -27817,7 +27817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="10">
         <v>3</v>
       </c>
@@ -27846,7 +27846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="10">
         <v>4</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="10">
         <v>5</v>
       </c>
@@ -27904,7 +27904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="10">
         <v>6</v>
       </c>
@@ -27933,7 +27933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="10">
         <v>7</v>
       </c>
@@ -27962,7 +27962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="10">
         <v>8</v>
       </c>
@@ -27991,7 +27991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="10">
         <v>9</v>
       </c>
@@ -28020,7 +28020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="10">
         <v>10</v>
       </c>
@@ -28049,7 +28049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="10">
         <v>11</v>
       </c>
@@ -28078,7 +28078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="10">
         <v>12</v>
       </c>
@@ -28107,7 +28107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="10">
         <v>13</v>
       </c>
@@ -28136,7 +28136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="10">
         <v>14</v>
       </c>
@@ -28165,7 +28165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="10">
         <v>15</v>
       </c>
@@ -28194,7 +28194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="10">
         <v>16</v>
       </c>
@@ -28223,7 +28223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="10">
         <v>17</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="10">
         <v>18</v>
       </c>
@@ -28281,7 +28281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="10">
         <v>19</v>
       </c>
@@ -28310,7 +28310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="10">
         <v>20</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="10">
         <v>21</v>
       </c>
@@ -28368,7 +28368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="10">
         <v>22</v>
       </c>
@@ -28397,7 +28397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="10">
         <v>23</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="10">
         <v>24</v>
       </c>
@@ -28455,7 +28455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="10">
         <v>25</v>
       </c>
@@ -28484,7 +28484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="10">
         <v>26</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="10">
         <v>27</v>
       </c>
@@ -28542,7 +28542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="10">
         <v>28</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="10">
         <v>29</v>
       </c>
@@ -28600,7 +28600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="10">
         <v>30</v>
       </c>
@@ -28629,7 +28629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="10">
         <v>31</v>
       </c>
@@ -28658,7 +28658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="10">
         <v>32</v>
       </c>
@@ -28687,7 +28687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="10">
         <v>33</v>
       </c>
@@ -28716,7 +28716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="10">
         <v>34</v>
       </c>
@@ -28745,7 +28745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="10">
         <v>35</v>
       </c>
@@ -28774,7 +28774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="10">
         <v>36</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="10">
         <v>37</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="10">
         <v>38</v>
       </c>
@@ -28861,7 +28861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="10">
         <v>39</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="10">
         <v>40</v>
       </c>
@@ -28919,7 +28919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="10">
         <v>41</v>
       </c>
@@ -28948,7 +28948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="10">
         <v>42</v>
       </c>
@@ -28977,7 +28977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="10">
         <v>43</v>
       </c>
@@ -29006,7 +29006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="10">
         <v>44</v>
       </c>
@@ -29035,7 +29035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="10">
         <v>45</v>
       </c>
@@ -29064,7 +29064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="10">
         <v>46</v>
       </c>
@@ -29093,7 +29093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="10">
         <v>47</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="10">
         <v>48</v>
       </c>
@@ -29151,7 +29151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="10">
         <v>49</v>
       </c>
@@ -29180,7 +29180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="10">
         <v>50</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="10">
         <v>51</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="10">
         <v>52</v>
       </c>
@@ -29267,7 +29267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="10">
         <v>53</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="10">
         <v>54</v>
       </c>
@@ -29325,7 +29325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="10">
         <v>55</v>
       </c>
@@ -29354,7 +29354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="10">
         <v>56</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="10">
         <v>57</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="10">
         <v>58</v>
       </c>
@@ -29441,7 +29441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="10">
         <v>59</v>
       </c>
@@ -29470,7 +29470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="10">
         <v>60</v>
       </c>
@@ -29499,7 +29499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="10">
         <v>61</v>
       </c>
@@ -29528,7 +29528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="10">
         <v>62</v>
       </c>
@@ -29557,7 +29557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="10">
         <v>63</v>
       </c>
@@ -29586,7 +29586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="10">
         <v>64</v>
       </c>
@@ -29615,7 +29615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="10">
         <v>65</v>
       </c>
@@ -29644,7 +29644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="10">
         <v>66</v>
       </c>
@@ -29673,7 +29673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="10">
         <v>67</v>
       </c>
@@ -29702,7 +29702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="10">
         <v>68</v>
       </c>
@@ -29731,7 +29731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="10">
         <v>69</v>
       </c>
@@ -29760,7 +29760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="10">
         <v>70</v>
       </c>
@@ -29789,12 +29789,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="10">
         <v>129</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="10">
         <v>130</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="10">
         <v>131</v>
       </c>
@@ -29827,7 +29827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="10">
         <v>132</v>
       </c>
@@ -29838,7 +29838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="10">
         <v>133</v>
       </c>
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="10">
         <v>134</v>
       </c>
@@ -29860,7 +29860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="10">
         <v>135</v>
       </c>
@@ -29871,7 +29871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="10">
         <v>136</v>
       </c>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="10">
         <v>137</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="10">
         <v>138</v>
       </c>
@@ -29904,7 +29904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="10">
         <v>139</v>
       </c>
@@ -29915,7 +29915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="10">
         <v>140</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="10">
         <v>141</v>
       </c>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="10">
         <v>142</v>
       </c>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="10">
         <v>143</v>
       </c>
@@ -29959,7 +29959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="10">
         <v>144</v>
       </c>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="10">
         <v>145</v>
       </c>
@@ -29981,7 +29981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="10">
         <v>146</v>
       </c>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="10">
         <v>147</v>
       </c>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="10">
         <v>148</v>
       </c>
@@ -30014,7 +30014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="10">
         <v>149</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="10">
         <v>150</v>
       </c>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="10">
         <v>151</v>
       </c>
@@ -30047,7 +30047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="10">
         <v>152</v>
       </c>
@@ -30058,7 +30058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="10">
         <v>153</v>
       </c>
@@ -30069,7 +30069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="10">
         <v>154</v>
       </c>
@@ -30080,22 +30080,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="10">
         <v>1</v>
       </c>
@@ -30124,7 +30124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="10">
         <v>2</v>
       </c>
@@ -30153,7 +30153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="10">
         <v>3</v>
       </c>
@@ -30182,7 +30182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="10">
         <v>4</v>
       </c>
@@ -30211,7 +30211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="10">
         <v>5</v>
       </c>
@@ -30240,7 +30240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="10">
         <v>6</v>
       </c>
@@ -30269,7 +30269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="10">
         <v>7</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="10">
         <v>8</v>
       </c>
@@ -30327,7 +30327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="10">
         <v>9</v>
       </c>
@@ -30356,7 +30356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="10">
         <v>10</v>
       </c>
@@ -30385,7 +30385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="10">
         <v>11</v>
       </c>
@@ -30414,7 +30414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="10">
         <v>12</v>
       </c>
@@ -30443,7 +30443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="10">
         <v>13</v>
       </c>
@@ -30472,7 +30472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="10">
         <v>14</v>
       </c>
@@ -30501,7 +30501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="10">
         <v>15</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="10">
         <v>16</v>
       </c>
@@ -30559,7 +30559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="10">
         <v>17</v>
       </c>
@@ -30588,7 +30588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="10">
         <v>18</v>
       </c>
@@ -30617,7 +30617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="10">
         <v>19</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="10">
         <v>20</v>
       </c>
@@ -30675,7 +30675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="10">
         <v>21</v>
       </c>
@@ -30704,7 +30704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="10">
         <v>22</v>
       </c>
@@ -30733,7 +30733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="10">
         <v>23</v>
       </c>
@@ -30762,7 +30762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="10">
         <v>24</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="10">
         <v>25</v>
       </c>
@@ -30820,7 +30820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="10">
         <v>26</v>
       </c>
@@ -30849,7 +30849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="10">
         <v>27</v>
       </c>
@@ -30878,7 +30878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="10">
         <v>28</v>
       </c>
@@ -30907,7 +30907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="10">
         <v>29</v>
       </c>
@@ -30936,7 +30936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="10">
         <v>30</v>
       </c>
@@ -30965,7 +30965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="10">
         <v>31</v>
       </c>
@@ -30994,7 +30994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="10">
         <v>32</v>
       </c>
@@ -31023,7 +31023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="10">
         <v>33</v>
       </c>
@@ -31052,7 +31052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="10">
         <v>34</v>
       </c>
@@ -31081,7 +31081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="10">
         <v>35</v>
       </c>
@@ -31110,7 +31110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="10">
         <v>36</v>
       </c>
@@ -31139,7 +31139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="10">
         <v>37</v>
       </c>
@@ -31168,7 +31168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="10">
         <v>38</v>
       </c>
@@ -31197,7 +31197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="10">
         <v>39</v>
       </c>
@@ -31226,7 +31226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="10">
         <v>40</v>
       </c>
@@ -31255,7 +31255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="10">
         <v>41</v>
       </c>
@@ -31284,7 +31284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="10">
         <v>42</v>
       </c>
@@ -31313,7 +31313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="10">
         <v>43</v>
       </c>
@@ -31342,7 +31342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="10">
         <v>44</v>
       </c>
@@ -31371,7 +31371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="10">
         <v>45</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="10">
         <v>46</v>
       </c>
@@ -31429,7 +31429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="10">
         <v>47</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="10">
         <v>48</v>
       </c>
@@ -31487,7 +31487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="10">
         <v>49</v>
       </c>
@@ -31516,7 +31516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="10">
         <v>50</v>
       </c>
@@ -31545,7 +31545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="10">
         <v>51</v>
       </c>
@@ -31574,7 +31574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="10">
         <v>52</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="10">
         <v>53</v>
       </c>
@@ -31632,7 +31632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="10">
         <v>54</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="10">
         <v>55</v>
       </c>
@@ -31690,7 +31690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="10">
         <v>56</v>
       </c>
@@ -31719,7 +31719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="10">
         <v>57</v>
       </c>
@@ -31748,7 +31748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="10">
         <v>58</v>
       </c>
@@ -31777,7 +31777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="10">
         <v>59</v>
       </c>
@@ -31806,7 +31806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="10">
         <v>60</v>
       </c>
@@ -31835,7 +31835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="10">
         <v>61</v>
       </c>
@@ -31864,7 +31864,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="10">
         <v>62</v>
       </c>
@@ -31893,12 +31893,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="10">
         <v>129</v>
       </c>
@@ -31909,7 +31909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="10">
         <v>130</v>
       </c>
@@ -31920,7 +31920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="10">
         <v>131</v>
       </c>
@@ -31931,7 +31931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="10">
         <v>132</v>
       </c>
@@ -31942,7 +31942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="10">
         <v>133</v>
       </c>
@@ -31953,7 +31953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="10">
         <v>134</v>
       </c>
@@ -31964,7 +31964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="10">
         <v>135</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="10">
         <v>136</v>
       </c>
@@ -31986,7 +31986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="10">
         <v>137</v>
       </c>
@@ -31997,7 +31997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="10">
         <v>138</v>
       </c>
@@ -32008,7 +32008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="10">
         <v>139</v>
       </c>
@@ -32019,7 +32019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="10">
         <v>140</v>
       </c>
@@ -32030,7 +32030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="10">
         <v>141</v>
       </c>
@@ -32041,7 +32041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="10">
         <v>142</v>
       </c>
@@ -32052,7 +32052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="10">
         <v>143</v>
       </c>
@@ -32063,7 +32063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="10">
         <v>144</v>
       </c>
@@ -32074,7 +32074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="10">
         <v>145</v>
       </c>
@@ -32085,7 +32085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="10">
         <v>146</v>
       </c>
@@ -32096,7 +32096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="10">
         <v>147</v>
       </c>
@@ -32107,7 +32107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="10">
         <v>148</v>
       </c>
@@ -32118,7 +32118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="10">
         <v>149</v>
       </c>
@@ -32129,7 +32129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="10">
         <v>150</v>
       </c>
@@ -32140,22 +32140,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="10">
         <v>1</v>
       </c>
@@ -32184,7 +32184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="10">
         <v>2</v>
       </c>
@@ -32213,7 +32213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="10">
         <v>3</v>
       </c>
@@ -32242,7 +32242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="10">
         <v>4</v>
       </c>
@@ -32271,7 +32271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="10">
         <v>5</v>
       </c>
@@ -32300,7 +32300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="10">
         <v>6</v>
       </c>
@@ -32329,7 +32329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="10">
         <v>7</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="10">
         <v>8</v>
       </c>
@@ -32387,7 +32387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="10">
         <v>9</v>
       </c>
@@ -32416,7 +32416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="10">
         <v>10</v>
       </c>
@@ -32445,7 +32445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="10">
         <v>11</v>
       </c>
@@ -32474,7 +32474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="10">
         <v>12</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="10">
         <v>13</v>
       </c>
@@ -32532,7 +32532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="10">
         <v>14</v>
       </c>
@@ -32561,7 +32561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="10">
         <v>15</v>
       </c>
@@ -32590,7 +32590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="10">
         <v>16</v>
       </c>
@@ -32619,7 +32619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="10">
         <v>17</v>
       </c>
@@ -32648,7 +32648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="10">
         <v>18</v>
       </c>
@@ -32677,7 +32677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="10">
         <v>19</v>
       </c>
@@ -32706,7 +32706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="10">
         <v>20</v>
       </c>
@@ -32735,7 +32735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="10">
         <v>21</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="10">
         <v>22</v>
       </c>
@@ -32793,7 +32793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="10">
         <v>23</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="10">
         <v>24</v>
       </c>
@@ -32851,7 +32851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="10">
         <v>25</v>
       </c>
@@ -32880,7 +32880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="10">
         <v>26</v>
       </c>
@@ -32909,7 +32909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="10">
         <v>27</v>
       </c>
@@ -32938,7 +32938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="10">
         <v>28</v>
       </c>
@@ -32967,7 +32967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="10">
         <v>29</v>
       </c>
@@ -32996,7 +32996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="10">
         <v>30</v>
       </c>
@@ -33025,7 +33025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="10">
         <v>31</v>
       </c>
@@ -33054,7 +33054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="10">
         <v>32</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="10">
         <v>33</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="10">
         <v>34</v>
       </c>
@@ -33141,7 +33141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="10">
         <v>35</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="10">
         <v>36</v>
       </c>
@@ -33199,7 +33199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="10">
         <v>37</v>
       </c>
@@ -33228,7 +33228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="10">
         <v>38</v>
       </c>
@@ -33257,7 +33257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="10">
         <v>39</v>
       </c>
@@ -33286,7 +33286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="10">
         <v>40</v>
       </c>
@@ -33315,7 +33315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="10">
         <v>41</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="10">
         <v>42</v>
       </c>
@@ -33373,7 +33373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="10">
         <v>43</v>
       </c>
@@ -33402,7 +33402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="10">
         <v>44</v>
       </c>
@@ -33431,7 +33431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="10">
         <v>45</v>
       </c>
@@ -33460,7 +33460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="10">
         <v>46</v>
       </c>
@@ -33489,7 +33489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="10">
         <v>47</v>
       </c>
@@ -33518,7 +33518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="10">
         <v>48</v>
       </c>
@@ -33547,7 +33547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="10">
         <v>49</v>
       </c>
@@ -33576,7 +33576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="10">
         <v>50</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="10">
         <v>51</v>
       </c>
@@ -33634,7 +33634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="10">
         <v>52</v>
       </c>
@@ -33663,7 +33663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="10">
         <v>53</v>
       </c>
@@ -33692,7 +33692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="10">
         <v>54</v>
       </c>
@@ -33721,7 +33721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="10">
         <v>55</v>
       </c>
@@ -33750,7 +33750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="10">
         <v>56</v>
       </c>
@@ -33779,7 +33779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="10">
         <v>57</v>
       </c>
@@ -33808,7 +33808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="10">
         <v>58</v>
       </c>
@@ -33837,7 +33837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="10">
         <v>59</v>
       </c>
@@ -33866,7 +33866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="10">
         <v>60</v>
       </c>
@@ -33895,7 +33895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="10">
         <v>61</v>
       </c>
@@ -33924,7 +33924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="10">
         <v>62</v>
       </c>
@@ -33953,7 +33953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="10">
         <v>63</v>
       </c>
@@ -33982,7 +33982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="10">
         <v>64</v>
       </c>
@@ -34011,7 +34011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="10">
         <v>65</v>
       </c>
@@ -34040,7 +34040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="10">
         <v>66</v>
       </c>
@@ -34069,12 +34069,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="10">
         <v>129</v>
       </c>
@@ -34085,7 +34085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="10">
         <v>130</v>
       </c>
@@ -34096,7 +34096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="10">
         <v>131</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="10">
         <v>132</v>
       </c>
@@ -34118,7 +34118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="10">
         <v>133</v>
       </c>
@@ -34129,7 +34129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="10">
         <v>134</v>
       </c>
@@ -34140,7 +34140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="10">
         <v>135</v>
       </c>
@@ -34151,7 +34151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="10">
         <v>136</v>
       </c>
@@ -34162,7 +34162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="10">
         <v>137</v>
       </c>
@@ -34173,7 +34173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="10">
         <v>138</v>
       </c>
@@ -34184,7 +34184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="10">
         <v>139</v>
       </c>
@@ -34195,7 +34195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="10">
         <v>140</v>
       </c>
@@ -34206,7 +34206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="10">
         <v>141</v>
       </c>
@@ -34217,7 +34217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="10">
         <v>142</v>
       </c>
@@ -34228,7 +34228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="10">
         <v>143</v>
       </c>
@@ -34239,7 +34239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="10">
         <v>144</v>
       </c>
@@ -34250,7 +34250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="10">
         <v>145</v>
       </c>
@@ -34261,7 +34261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="10">
         <v>146</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="10">
         <v>147</v>
       </c>
@@ -34283,7 +34283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="10">
         <v>148</v>
       </c>
@@ -34294,7 +34294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="10">
         <v>149</v>
       </c>
@@ -34305,7 +34305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="10">
         <v>150</v>
       </c>
@@ -34316,7 +34316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="10">
         <v>151</v>
       </c>
@@ -34327,7 +34327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="10">
         <v>152</v>
       </c>
@@ -34338,7 +34338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="10">
         <v>153</v>
       </c>
@@ -34349,7 +34349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="10">
         <v>154</v>
       </c>
@@ -34360,22 +34360,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="10">
         <v>1</v>
       </c>
@@ -34404,7 +34404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="10">
         <v>2</v>
       </c>
@@ -34433,7 +34433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="10">
         <v>3</v>
       </c>
@@ -34462,7 +34462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="10">
         <v>4</v>
       </c>
@@ -34491,7 +34491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="10">
         <v>5</v>
       </c>
@@ -34520,7 +34520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="10">
         <v>6</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="10">
         <v>7</v>
       </c>
@@ -34578,7 +34578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="10">
         <v>8</v>
       </c>
@@ -34607,7 +34607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="10">
         <v>9</v>
       </c>
@@ -34636,7 +34636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="10">
         <v>10</v>
       </c>
@@ -34665,7 +34665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="10">
         <v>11</v>
       </c>
@@ -34694,7 +34694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="10">
         <v>12</v>
       </c>
@@ -34723,7 +34723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="10">
         <v>13</v>
       </c>
@@ -34752,7 +34752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="10">
         <v>14</v>
       </c>
@@ -34781,7 +34781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="10">
         <v>15</v>
       </c>
@@ -34810,7 +34810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="10">
         <v>16</v>
       </c>
@@ -34839,7 +34839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="10">
         <v>17</v>
       </c>
@@ -34868,7 +34868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="10">
         <v>18</v>
       </c>
@@ -34897,7 +34897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="10">
         <v>19</v>
       </c>
@@ -34926,7 +34926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="10">
         <v>20</v>
       </c>
@@ -34955,7 +34955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="10">
         <v>21</v>
       </c>
@@ -34984,7 +34984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="10">
         <v>22</v>
       </c>
@@ -35013,7 +35013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="10">
         <v>23</v>
       </c>
@@ -35042,7 +35042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="10">
         <v>24</v>
       </c>
@@ -35071,7 +35071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="10">
         <v>25</v>
       </c>
@@ -35100,7 +35100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="10">
         <v>26</v>
       </c>
@@ -35129,7 +35129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="10">
         <v>27</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="10">
         <v>28</v>
       </c>
@@ -35187,7 +35187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="10">
         <v>29</v>
       </c>
@@ -35216,7 +35216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="10">
         <v>30</v>
       </c>
@@ -35245,7 +35245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="10">
         <v>31</v>
       </c>
@@ -35274,7 +35274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="10">
         <v>32</v>
       </c>
@@ -35303,7 +35303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="10">
         <v>33</v>
       </c>
@@ -35332,7 +35332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="10">
         <v>34</v>
       </c>
@@ -35361,7 +35361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="10">
         <v>35</v>
       </c>
@@ -35390,7 +35390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="10">
         <v>36</v>
       </c>
@@ -35419,7 +35419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="10">
         <v>37</v>
       </c>
@@ -35448,7 +35448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="10">
         <v>38</v>
       </c>
@@ -35477,7 +35477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="10">
         <v>39</v>
       </c>
@@ -35506,7 +35506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="10">
         <v>40</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="10">
         <v>41</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="10">
         <v>42</v>
       </c>
@@ -35593,7 +35593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="10">
         <v>43</v>
       </c>
@@ -35622,7 +35622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="10">
         <v>44</v>
       </c>
@@ -35651,7 +35651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="10">
         <v>45</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="10">
         <v>46</v>
       </c>
@@ -35709,7 +35709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="10">
         <v>47</v>
       </c>
@@ -35738,7 +35738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="10">
         <v>48</v>
       </c>
@@ -35767,7 +35767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="10">
         <v>49</v>
       </c>
@@ -35796,7 +35796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="10">
         <v>50</v>
       </c>
@@ -35825,7 +35825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="10">
         <v>51</v>
       </c>
@@ -35854,7 +35854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="10">
         <v>52</v>
       </c>
@@ -35883,7 +35883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="10">
         <v>53</v>
       </c>
@@ -35912,7 +35912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="10">
         <v>54</v>
       </c>
@@ -35941,7 +35941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="10">
         <v>55</v>
       </c>
@@ -35970,7 +35970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="10">
         <v>56</v>
       </c>
@@ -35999,7 +35999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="10">
         <v>57</v>
       </c>
@@ -36028,7 +36028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="10">
         <v>58</v>
       </c>
@@ -36057,7 +36057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="10">
         <v>59</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="10">
         <v>60</v>
       </c>
@@ -36115,7 +36115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="10">
         <v>61</v>
       </c>
@@ -36144,7 +36144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="10">
         <v>62</v>
       </c>
@@ -36173,7 +36173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="10">
         <v>63</v>
       </c>
@@ -36202,7 +36202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="10">
         <v>64</v>
       </c>
@@ -36231,12 +36231,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="10">
         <v>129</v>
       </c>
@@ -36247,7 +36247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="10">
         <v>130</v>
       </c>
@@ -36258,7 +36258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="10">
         <v>131</v>
       </c>
@@ -36269,7 +36269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="10">
         <v>132</v>
       </c>
@@ -36280,7 +36280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="10">
         <v>133</v>
       </c>
@@ -36291,7 +36291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="10">
         <v>134</v>
       </c>
@@ -36302,7 +36302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="10">
         <v>135</v>
       </c>
@@ -36313,7 +36313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="10">
         <v>136</v>
       </c>
@@ -36324,7 +36324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" s="10">
         <v>137</v>
       </c>
@@ -36335,7 +36335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" s="10">
         <v>138</v>
       </c>
@@ -36346,7 +36346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="10">
         <v>139</v>
       </c>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="10">
         <v>140</v>
       </c>
@@ -36368,7 +36368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="10">
         <v>141</v>
       </c>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="10">
         <v>142</v>
       </c>
@@ -36390,7 +36390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="10">
         <v>143</v>
       </c>
@@ -36401,7 +36401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="10">
         <v>144</v>
       </c>
@@ -36412,7 +36412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="10">
         <v>145</v>
       </c>
@@ -36423,7 +36423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="10">
         <v>146</v>
       </c>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="10">
         <v>147</v>
       </c>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="10">
         <v>148</v>
       </c>
@@ -36456,7 +36456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="10">
         <v>149</v>
       </c>
@@ -36467,7 +36467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="10">
         <v>150</v>
       </c>
@@ -36478,22 +36478,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="10">
         <v>1</v>
       </c>
@@ -36522,7 +36522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="10">
         <v>2</v>
       </c>
@@ -36551,7 +36551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="10">
         <v>3</v>
       </c>
@@ -36580,7 +36580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="10">
         <v>4</v>
       </c>
@@ -36609,7 +36609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="10">
         <v>5</v>
       </c>
@@ -36638,7 +36638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="10">
         <v>6</v>
       </c>
@@ -36667,7 +36667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="10">
         <v>7</v>
       </c>
@@ -36696,7 +36696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="10">
         <v>8</v>
       </c>
@@ -36725,7 +36725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="10">
         <v>9</v>
       </c>
@@ -36754,7 +36754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="10">
         <v>10</v>
       </c>
@@ -36783,7 +36783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="10">
         <v>11</v>
       </c>
@@ -36812,7 +36812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="10">
         <v>12</v>
       </c>
@@ -36841,7 +36841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="10">
         <v>13</v>
       </c>
@@ -36870,7 +36870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="10">
         <v>14</v>
       </c>
@@ -36899,7 +36899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="10">
         <v>15</v>
       </c>
@@ -36928,7 +36928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="10">
         <v>16</v>
       </c>
@@ -36957,7 +36957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" s="10">
         <v>17</v>
       </c>
@@ -36986,7 +36986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="10">
         <v>18</v>
       </c>
@@ -37015,7 +37015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="10">
         <v>19</v>
       </c>
@@ -37044,7 +37044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="10">
         <v>20</v>
       </c>
@@ -37073,7 +37073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="10">
         <v>21</v>
       </c>
@@ -37102,7 +37102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="10">
         <v>22</v>
       </c>
@@ -37131,7 +37131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="10">
         <v>23</v>
       </c>
@@ -37160,7 +37160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="10">
         <v>24</v>
       </c>
@@ -37189,7 +37189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="10">
         <v>25</v>
       </c>
@@ -37218,7 +37218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="10">
         <v>26</v>
       </c>
@@ -37247,7 +37247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="10">
         <v>27</v>
       </c>
@@ -37276,7 +37276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="10">
         <v>28</v>
       </c>
@@ -37305,7 +37305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="10">
         <v>29</v>
       </c>
@@ -37334,7 +37334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="10">
         <v>30</v>
       </c>
@@ -37363,7 +37363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="10">
         <v>31</v>
       </c>
@@ -37392,7 +37392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="10">
         <v>32</v>
       </c>
@@ -37421,7 +37421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="10">
         <v>33</v>
       </c>
@@ -37450,7 +37450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="10">
         <v>34</v>
       </c>
@@ -37479,7 +37479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="10">
         <v>35</v>
       </c>
@@ -37508,7 +37508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="10">
         <v>36</v>
       </c>
@@ -37537,7 +37537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="10">
         <v>37</v>
       </c>
@@ -37566,7 +37566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="10">
         <v>38</v>
       </c>
@@ -37595,7 +37595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="10">
         <v>39</v>
       </c>
@@ -37624,7 +37624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="10">
         <v>40</v>
       </c>
@@ -37653,7 +37653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" s="10">
         <v>41</v>
       </c>
@@ -37682,7 +37682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" s="10">
         <v>42</v>
       </c>
@@ -37711,7 +37711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" s="10">
         <v>43</v>
       </c>
@@ -37740,7 +37740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" s="10">
         <v>44</v>
       </c>
@@ -37769,7 +37769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="10">
         <v>45</v>
       </c>
@@ -37798,7 +37798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="10">
         <v>46</v>
       </c>
@@ -37827,7 +37827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="10">
         <v>47</v>
       </c>
@@ -37856,7 +37856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" s="10">
         <v>48</v>
       </c>
@@ -37885,7 +37885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" s="10">
         <v>49</v>
       </c>
@@ -37914,7 +37914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" s="10">
         <v>50</v>
       </c>
@@ -37943,7 +37943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" s="10">
         <v>51</v>
       </c>
@@ -37972,7 +37972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" s="10">
         <v>52</v>
       </c>
@@ -38001,7 +38001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" s="10">
         <v>53</v>
       </c>
@@ -38030,7 +38030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" s="10">
         <v>54</v>
       </c>
@@ -38059,7 +38059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" s="10">
         <v>55</v>
       </c>
@@ -38088,7 +38088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" s="10">
         <v>56</v>
       </c>
@@ -38117,7 +38117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" s="10">
         <v>57</v>
       </c>
@@ -38146,7 +38146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" s="10">
         <v>58</v>
       </c>
@@ -38175,7 +38175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" s="10">
         <v>59</v>
       </c>
@@ -38204,7 +38204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" s="10">
         <v>60</v>
       </c>
@@ -38233,7 +38233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" s="10">
         <v>61</v>
       </c>
@@ -38262,7 +38262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" s="10">
         <v>62</v>
       </c>
@@ -38291,7 +38291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" s="10">
         <v>63</v>
       </c>
@@ -38320,7 +38320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" s="10">
         <v>64</v>
       </c>
@@ -38349,7 +38349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" s="10">
         <v>65</v>
       </c>
@@ -38378,7 +38378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" s="10">
         <v>66</v>
       </c>
@@ -38407,7 +38407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" s="10">
         <v>67</v>
       </c>
@@ -38436,7 +38436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" s="10">
         <v>68</v>
       </c>
@@ -38465,7 +38465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" s="10">
         <v>69</v>
       </c>
@@ -38494,7 +38494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" s="10">
         <v>70</v>
       </c>
@@ -38523,7 +38523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" s="10">
         <v>71</v>
       </c>
@@ -38552,7 +38552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" s="10">
         <v>72</v>
       </c>
@@ -38581,7 +38581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" s="10">
         <v>73</v>
       </c>
@@ -38610,12 +38610,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" s="10">
         <v>74</v>
       </c>
       <c r="B880" s="1">
-        <v>741</v>
+        <v>7018</v>
       </c>
       <c r="C880">
         <v>0</v>
@@ -38639,7 +38639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" s="10">
         <v>75</v>
       </c>
@@ -38668,7 +38668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" s="10">
         <v>76</v>
       </c>
@@ -38697,7 +38697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" s="10">
         <v>77</v>
       </c>
@@ -38726,7 +38726,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" s="10">
         <v>78</v>
       </c>
@@ -38755,12 +38755,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" s="10">
         <v>129</v>
       </c>
@@ -38771,7 +38771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" s="10">
         <v>130</v>
       </c>
@@ -38782,7 +38782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" s="10">
         <v>131</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" s="10">
         <v>132</v>
       </c>
@@ -38804,7 +38804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" s="10">
         <v>133</v>
       </c>
@@ -38815,7 +38815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" s="10">
         <v>134</v>
       </c>
@@ -38826,7 +38826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" s="10">
         <v>135</v>
       </c>
@@ -38837,7 +38837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" s="10">
         <v>136</v>
       </c>
@@ -38848,7 +38848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" s="10">
         <v>137</v>
       </c>
@@ -38859,7 +38859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" s="10">
         <v>138</v>
       </c>
@@ -38870,7 +38870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" s="10">
         <v>139</v>
       </c>
@@ -38881,7 +38881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" s="10">
         <v>140</v>
       </c>
@@ -38892,7 +38892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" s="10">
         <v>141</v>
       </c>
@@ -38903,7 +38903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" s="10">
         <v>142</v>
       </c>
@@ -38914,7 +38914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" s="10">
         <v>143</v>
       </c>
@@ -38925,7 +38925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" s="10">
         <v>144</v>
       </c>
@@ -38936,7 +38936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" s="10">
         <v>145</v>
       </c>
@@ -38947,7 +38947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" s="10">
         <v>146</v>
       </c>
@@ -38958,7 +38958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" s="10">
         <v>147</v>
       </c>
@@ -38969,7 +38969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" s="10">
         <v>148</v>
       </c>
@@ -38980,7 +38980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" s="10">
         <v>149</v>
       </c>
@@ -38991,7 +38991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" s="10">
         <v>150</v>
       </c>
@@ -39002,7 +39002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" s="10">
         <v>151</v>
       </c>
@@ -39013,7 +39013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" s="10">
         <v>152</v>
       </c>
@@ -39024,7 +39024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" s="10">
         <v>153</v>
       </c>
@@ -39035,7 +39035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" s="10">
         <v>154</v>
       </c>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" s="10">
         <v>155</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" s="10">
         <v>156</v>
       </c>
